--- a/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9571294945753713</v>
+        <v>0.9571294945753716</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9326402810088087</v>
+        <v>0.9326402810088085</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9444362857722057</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.935546304981515</v>
+        <v>0.9348104302623026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9128113256984748</v>
+        <v>0.912648710883598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9315512539840513</v>
+        <v>0.9308708881511571</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9713331324559914</v>
+        <v>0.9711745259279151</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9472712524295278</v>
+        <v>0.9484761175460584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9552223218059533</v>
+        <v>0.9558558440505404</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8993940027302258</v>
+        <v>0.8993270447052109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.909353047197519</v>
+        <v>0.910920612273263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9088305780203635</v>
+        <v>0.9096327375881553</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9400494933636379</v>
+        <v>0.9395930759900311</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9387323739242153</v>
+        <v>0.9403885056837081</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9357325162979071</v>
+        <v>0.9362609587828036</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8871635310880035</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.914467825865986</v>
+        <v>0.9144678258659857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9008328162671363</v>
+        <v>0.9008328162671365</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.856987285837054</v>
+        <v>0.855744081682512</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8934781532043943</v>
+        <v>0.8961598503293546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8823921278224914</v>
+        <v>0.8815848033507619</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9137466048352437</v>
+        <v>0.9115705644129464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.932073273531822</v>
+        <v>0.9327942934060823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9166124159285727</v>
+        <v>0.9149218673369527</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.9173872467000141</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9198511582495416</v>
+        <v>0.9198511582495417</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9186900138065692</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8958457650881577</v>
+        <v>0.8947958415235233</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9021262575319532</v>
+        <v>0.904844218163728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.90544010269266</v>
+        <v>0.9055266490668324</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9353584662214339</v>
+        <v>0.9348572818982898</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9331299367554128</v>
+        <v>0.9347060797666811</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9299690298959816</v>
+        <v>0.930142514135928</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9189873530307753</v>
+        <v>0.9189873530307754</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9229529434970936</v>
+        <v>0.9229529434970933</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9210297987592954</v>
+        <v>0.9210297987592952</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9079052981496902</v>
+        <v>0.907090016019271</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9140236758557877</v>
+        <v>0.9132274443711186</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.913140151828074</v>
+        <v>0.9141083189874336</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9288234597506259</v>
+        <v>0.9294301359008047</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9306294068872664</v>
+        <v>0.9303388472451977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9271002804341353</v>
+        <v>0.9275436077683572</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>575342</v>
+        <v>574890</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>604058</v>
+        <v>603951</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1189345</v>
+        <v>1188476</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>597350</v>
+        <v>597253</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>626862</v>
+        <v>627660</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1219567</v>
+        <v>1220376</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>859831</v>
+        <v>859767</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>906837</v>
+        <v>908400</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1775168</v>
+        <v>1776735</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>898698</v>
+        <v>898261</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>936135</v>
+        <v>937786</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1827714</v>
+        <v>1828746</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>656008</v>
+        <v>655057</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>685660</v>
+        <v>687718</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1352608</v>
+        <v>1351371</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>699457</v>
+        <v>697791</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>715279</v>
+        <v>715832</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1405064</v>
+        <v>1402473</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>822407</v>
+        <v>821443</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>929183</v>
+        <v>931982</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1763811</v>
+        <v>1763979</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>858681</v>
+        <v>858220</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>961116</v>
+        <v>962740</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1811594</v>
+        <v>1811932</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2954774</v>
+        <v>2952121</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3159220</v>
+        <v>3156467</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6127977</v>
+        <v>6134474</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3022852</v>
+        <v>3024827</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3216615</v>
+        <v>3215611</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6221662</v>
+        <v>6224637</v>
       </c>
     </row>
     <row r="24">
